--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1801.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1801.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.152790689687846</v>
+        <v>0.7476077079772949</v>
       </c>
       <c r="B1">
-        <v>2.296668525005227</v>
+        <v>1.576925992965698</v>
       </c>
       <c r="C1">
-        <v>4.352645027279126</v>
+        <v>4.693437576293945</v>
       </c>
       <c r="D1">
-        <v>2.906704168419181</v>
+        <v>2.396350145339966</v>
       </c>
       <c r="E1">
-        <v>1.158251573518831</v>
+        <v>1.265293121337891</v>
       </c>
     </row>
   </sheetData>
